--- a/OldMutual/Excel Template/FilteredOverAllClaims.xlsx
+++ b/OldMutual/Excel Template/FilteredOverAllClaims.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Excel Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31365B4-6881-4C01-9F12-C562351ECC25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEE99F6-ABCF-44BA-AF7C-A0A62302F3C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{835D5FD0-42A3-4A7C-8AE4-65ABEA6B1D6F}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{835D5FD0-42A3-4A7C-8AE4-65ABEA6B1D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidOverAllClaims" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -231,142 +231,142 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Vardhan Addagada" refreshedDate="45272.926199884256" createdVersion="1" refreshedVersion="8" recordCount="7" xr:uid="{09B46B96-9FF9-4383-B6B2-F5892EA476A3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Guru Teja" refreshedDate="45282.785448379633" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="8" xr:uid="{CECEE4AA-D9BB-45D9-9E0D-B9A2EF6B206B}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:AR8" sheet="OMLKE to deal"/>
+    <worksheetSource ref="A1:AR100000" sheet="OMLKE to deal"/>
   </cacheSource>
   <cacheFields count="44">
     <cacheField name="Group" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Group Name" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Member" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Name" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Service Date" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2022-01-02T00:00:00" maxDate="2022-09-03T00:00:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Provider No" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Provider" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Invoice No" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Fees Charged" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1760.37" maxValue="40000"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="IPD Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="OPD Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="40000"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="PAYEE" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="REMARKS/ REASON" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Payment From" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Batch" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="62350325" maxValue="92785112"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Claim No" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Benefit" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="User" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Date Batch Was Scanned" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Date Captured" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Date Vetted" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Date Paid" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Date Received" numFmtId="0">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2022-10-01T00:00:00" maxDate="2022-10-02T00:00:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Audit Time" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Report Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2022-09-09T00:00:00" maxDate="2022-09-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="ML Status" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Vetted By" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Captured By" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Prod_Curency" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="ExchRate_Prod_Inv" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Invoice Currency" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Pay Amt(Invoice Currency)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="40000"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Reporting Currency" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="ExchRate(Reporting Curr)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Pay Amt(Reporting Curr)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="40000"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Date Reversed" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2022-09-09T00:00:00" maxDate="2022-09-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Rejection Reason" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Plan Name" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Visit ID" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="12092803" maxValue="12270791"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="InvNum" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="InvVsPartiallyPaidRemittance" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="InvNumStatus" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Ar Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="450" maxValue="40000"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -378,644 +378,426 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
   <r>
-    <s v="C02559"/>
-    <s v="AFRICAN POPULATION AND HEALTH RESEARCH CENTRE"/>
-    <s v="UK10795400"/>
-    <s v="MRS EDNA KWAMBOKA RIECHI"/>
-    <s v="13/01/2022"/>
-    <s v="10461KE"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="OPR14896/22#000"/>
-    <n v="2474.89"/>
-    <n v="0"/>
-    <n v="2474.89"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="TRANSACTION NOT VERIFIED THROUGH SMART SYSTEM"/>
-    <s v="insured"/>
-    <n v="92784812"/>
-    <s v="RC2212212413"/>
-    <s v="OUT-PATIENT"/>
-    <s v="MISS GEORGINAH  NAMMRU"/>
-    <m/>
-    <s v="21/12/2022"/>
-    <m/>
-    <m/>
-    <s v="14/01/2022"/>
-    <m/>
-    <m/>
-    <s v="REGISTERED"/>
-    <s v="-"/>
-    <m/>
-    <s v="MISS GEORGINAH  NAMMRU"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <s v="KES"/>
-    <n v="2474.89"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <n v="2474.89"/>
-    <m/>
-    <m/>
-    <s v="MIGRATION PLAN"/>
-    <s v="-"/>
-    <s v="OPR14896/22"/>
-    <s v="InvoiceNotMatched"/>
-    <s v="InvoiceMatched"/>
-    <n v="2474.89"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <s v="C02559"/>
-    <s v="AFRICAN POPULATION AND HEALTH RESEARCH CENTRE"/>
-    <s v="UK10795400"/>
-    <s v="MRS EDNA KWAMBOKA RIECHI"/>
-    <s v="13/01/2022"/>
-    <s v="10461KE"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="OPR14901/22#000"/>
-    <n v="6434.08"/>
-    <n v="0"/>
-    <n v="6434.08"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="TRANSACTION NOT VERIFIED THROUGH SMART SYSTEM"/>
-    <s v="insured"/>
-    <n v="92784812"/>
-    <s v="RC2212212413"/>
-    <s v="OUT-PATIENT"/>
-    <s v="MISS GEORGINAH  NAMMRU"/>
-    <m/>
-    <s v="21/12/2022"/>
-    <m/>
-    <m/>
-    <s v="14/01/2022"/>
-    <m/>
-    <m/>
-    <s v="REGISTERED"/>
-    <s v="-"/>
-    <m/>
-    <s v="MISS GEORGINAH  NAMMRU"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <s v="KES"/>
-    <n v="6434.08"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <n v="6434.08"/>
-    <m/>
-    <m/>
-    <s v="MIGRATION PLAN"/>
-    <s v="-"/>
-    <s v="OPR14901/22"/>
-    <s v="InvoiceNotMatched"/>
-    <s v="InvoiceMatched"/>
-    <n v="6434.08"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <s v="C02559"/>
-    <s v="AFRICAN POPULATION AND HEALTH RESEARCH CENTRE"/>
-    <s v="UK10795400"/>
-    <s v="MRS EDNA KWAMBOKA RIECHI"/>
-    <s v="13/01/2022"/>
-    <s v="10461KE"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="ORE26471/22#000"/>
-    <n v="3750"/>
-    <n v="0"/>
-    <n v="3750"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="TRANSACTION NOT VERIFIED THROUGH SMART SYSTEM"/>
-    <s v="insured"/>
-    <n v="92784812"/>
-    <s v="RC2212212413"/>
-    <s v="OUT-PATIENT"/>
-    <s v="MISS GEORGINAH  NAMMRU"/>
-    <m/>
-    <s v="21/12/2022"/>
-    <m/>
-    <m/>
-    <s v="14/01/2022"/>
-    <m/>
-    <m/>
-    <s v="REGISTERED"/>
-    <s v="-"/>
-    <m/>
-    <s v="MISS GEORGINAH  NAMMRU"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <s v="KES"/>
-    <n v="3750"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <n v="3750"/>
-    <m/>
-    <m/>
-    <s v="MIGRATION PLAN"/>
-    <s v="-"/>
-    <s v="ORE26471/22"/>
-    <s v="InvoiceNotMatched"/>
-    <s v="InvoiceMatched"/>
-    <n v="3750"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
     <m/>
-    <s v="UK03104900"/>
-    <s v="MRS GRACE WANJIKU MIANO"/>
-    <d v="2022-01-02T00:00:00"/>
-    <s v="10461KE"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="OPR39217/22#000"/>
-    <n v="3764.88"/>
-    <n v="0"/>
-    <n v="3764.88"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="REG AND AUTO PROCESSED"/>
-    <s v="insured"/>
-    <n v="63078581"/>
-    <s v="RC2202281746"/>
-    <s v="OUT-PATIENT"/>
-    <s v="MS MARY RAHAB WANJIRO"/>
-    <m/>
-    <s v="28/02/2022"/>
-    <s v="28/02/2022"/>
-    <m/>
-    <s v="22/02/2022"/>
-    <m/>
-    <m/>
-    <s v="DOCTOR PROCESS DONE"/>
-    <s v="-"/>
-    <s v="MS MARY RAHAB WANJIRO"/>
-    <s v="MS MARY RAHAB WANJIRO"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <s v="KES"/>
-    <n v="3764.88"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <n v="3764.88"/>
-    <m/>
-    <m/>
-    <s v="MIGRATION PLAN"/>
-    <n v="12270791"/>
-    <s v="OPR39217/22"/>
-    <s v="InvoiceNotMatched"/>
-    <s v="InvoiceMatched"/>
-    <n v="3764.88"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <s v="C02169"/>
-    <s v="KENYA ROADS BOARD"/>
-    <s v="UK08804000"/>
-    <s v="MS WAMBUGU MERCY NJERI"/>
-    <d v="2022-09-02T00:00:00"/>
-    <s v="10461KE"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="ORE87399/22#000"/>
-    <n v="40000"/>
-    <n v="0"/>
-    <n v="40000"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="UN AUTHORIZED OFF SMART BILLS"/>
-    <s v="insured"/>
-    <n v="92785112"/>
-    <s v="RC2206244663"/>
-    <s v="OUT-PATIENT"/>
-    <s v="MR YOBESH  OMONDI"/>
-    <m/>
-    <s v="24/06/2022"/>
-    <m/>
-    <m/>
-    <s v="24/03/2022"/>
-    <m/>
-    <m/>
-    <s v="REGISTERED"/>
-    <s v="-"/>
-    <m/>
-    <s v="MR YOBESH  OMONDI"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <s v="KES"/>
-    <n v="40000"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <n v="40000"/>
-    <m/>
-    <m/>
-    <s v="MIGRATION PLAN"/>
-    <s v="-"/>
-    <s v="ORE87399/22"/>
-    <s v="InvoiceNotMatched"/>
-    <s v="InvoiceMatched"/>
-    <n v="40000"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
-    <s v="C00439"/>
-    <s v="UNILEVER KENYA LIMITED"/>
-    <s v="UK02402001"/>
-    <s v="MR STEPHEN N KIMANI"/>
-    <s v="21/01/2022"/>
-    <s v="10461KE"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="OPR25088/22#000"/>
-    <n v="1760.37"/>
-    <n v="0"/>
-    <n v="0"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="PAY#SR"/>
-    <s v="insured"/>
-    <n v="62350325"/>
-    <s v="RC2202221736"/>
-    <s v="OUT-PATIENT"/>
-    <s v="MR YOBESH  OMONDI"/>
-    <m/>
-    <s v="22/02/2022"/>
-    <s v="28/02/2022"/>
-    <m/>
-    <s v="30/01/2022"/>
-    <s v="28/02/2022"/>
-    <d v="2022-09-09T00:00:00"/>
-    <s v="CANCELLED"/>
-    <s v="-"/>
-    <s v="MS VALLERY ALUOCH OUMA"/>
-    <s v="MR YOBESH  OMONDI"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <s v="KES"/>
-    <n v="0"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <n v="0"/>
-    <d v="2022-09-09T00:00:00"/>
-    <s v="PAY#SR"/>
-    <s v="MIGRATION PLAN"/>
-    <n v="12190753"/>
-    <s v="OPR25088/22"/>
-    <s v="InvoiceNotMatched"/>
-    <s v="InvoiceMatched"/>
-    <n v="1760.37"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
     <m/>
-    <s v="UK10294900"/>
-    <s v="MRS GRACE KAGENDO MPUKO"/>
-    <d v="2022-09-01T00:00:00"/>
-    <s v="10461KE"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="ORE17189/22#000"/>
-    <n v="2450"/>
-    <n v="0"/>
-    <n v="2450"/>
-    <s v="THE AGA KHAN UNIVERSITY HOSPITALNAIROBI (10461KE)"/>
-    <s v="REG AND AUTO PROCESSED"/>
-    <s v="insured"/>
-    <s v="ORE17189/22"/>
-    <s v="RC2205264215"/>
-    <s v="OUT-PATIENT"/>
-    <s v="MS FLAVIAN  KAZIRA"/>
-    <m/>
-    <s v="26/05/2022"/>
-    <s v="26/05/2022"/>
-    <m/>
-    <d v="2022-10-01T00:00:00"/>
-    <m/>
-    <m/>
-    <s v="FORWARD OR REFERED TO DOCTOR"/>
-    <s v="FAILED"/>
-    <s v="MS FLAVIAN  KAZIRA"/>
-    <s v="MS FLAVIAN  KAZIRA"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <s v="KES"/>
-    <n v="2450"/>
-    <s v="KES"/>
-    <n v="1"/>
-    <n v="2450"/>
-    <m/>
-    <s v="#CREADIT NOTE-2000.0"/>
-    <s v="MIGRATION PLAN"/>
-    <n v="12092803"/>
-    <s v="ORE17189/22"/>
-    <s v="InvoiceNotMatched"/>
-    <s v="InvoiceMatched"/>
-    <n v="450"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FEE2C27-36A7-4F2E-AEFC-47CD0B3BFEC6}" name="pivotsts" cacheId="25" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
-  <location ref="AT1:AT2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AE53E9C-ED1B-4FEB-9940-D3E58A968920}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AU1:AU2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="44">
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -1024,12 +806,12 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Ar Amount" fld="43" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Ar Amount" fld="43" baseField="0" baseItem="2001221875"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
@@ -1470,9 +1252,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0757B1-BC1E-4EBD-91BF-D946FEC3BF6A}">
-  <dimension ref="A1:AT8"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1520,10 +1302,10 @@
     <col min="42" max="42" width="25" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1656,26 +1438,24 @@
       <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="AT2" s="2">
-        <v>58634.22</v>
-      </c>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AU2" s="2"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="Y7" s="1"/>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="W8" s="1"/>
     </row>
@@ -1688,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1012297-C2A3-41F0-B38E-8C10D8F5A24F}">
   <dimension ref="A1:AR1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
